--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.14</v>
@@ -668,10 +668,10 @@
         <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.67</v>
@@ -689,13 +689,13 @@
         <v>4.33</v>
       </c>
       <c r="U2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -707,38 +707,38 @@
         <v>5.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>151</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH2" t="n">
         <v>67</v>
       </c>
-      <c r="AH2" t="n">
-        <v>51</v>
-      </c>
       <c r="AI2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pprobv46</t>
+          <t>dQtWlF9e</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -758,22 +758,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.14</v>
@@ -800,65 +800,65 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A1WCy8Ac</t>
+          <t>pprobv46</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -868,115 +868,117 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FINLAND - YKKOSLIIGA</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ekenas</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="M4" t="n">
-        <v>2.87</v>
+        <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.5</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>8.25</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>500</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>revRD4Ij</t>
+          <t>A1WCy8Ac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -996,97 +998,105 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JaPS</t>
+          <t>Ekenas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>KaPa</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>4.35</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.25</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.77</v>
+      </c>
       <c r="N5" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="X5" t="n">
-        <v>11.25</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>8.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>35</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
         <v>32</v>
       </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OAcfJQfT</t>
+          <t>revRD4Ij</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1106,105 +1116,97 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PK-35</t>
+          <t>JaPS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>KaPa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.47</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.57</v>
+        <v>4.45</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.57</v>
-      </c>
+        <v>3.05</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>2.72</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
         <v>12.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.75</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WGKLZouA</t>
+          <t>OAcfJQfT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1224,68 +1226,72 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SJK Akatemia</t>
+          <t>PK-35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JIPPO</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.45</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.35</v>
-      </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.57</v>
+      </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="T7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z7" t="n">
         <v>11.5</v>
       </c>
-      <c r="U7" t="n">
-        <v>20</v>
-      </c>
-      <c r="V7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50</v>
-      </c>
-      <c r="X7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AA7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1294,22 +1300,22 @@
         <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.25</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
         <v>350</v>
@@ -1318,7 +1324,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pz5Ti89C</t>
+          <t>WGKLZouA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1328,59 +1334,111 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>FINLAND - YKKOSLIIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Independiente FBC</t>
+          <t>SJK Akatemia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>JIPPO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.15</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.91</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>11</v>
+      </c>
+      <c r="U8" t="n">
+        <v>18</v>
+      </c>
+      <c r="V8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>40</v>
+      </c>
+      <c r="X8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>h08yjnvP</t>
+          <t>pz5Ti89C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1390,7 +1448,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1400,49 +1458,105 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Guairena</t>
+          <t>Independiente FBC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pastoreo</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yi9SYdyh</t>
+          <t>h08yjnvP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1452,119 +1566,113 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Guairena</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>Pastoreo</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V10" t="n">
         <v>9.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>17</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
+        <v>21</v>
+      </c>
+      <c r="X10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
         <v>12</v>
       </c>
-      <c r="W10" t="n">
-        <v>34</v>
-      </c>
-      <c r="X10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9</v>
-      </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>301</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UJ2yXz64</t>
+          <t>Yi9SYdyh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1584,46 +1692,46 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Asan</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.75</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.88</v>
-      </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
         <v>1.83</v>
@@ -1632,28 +1740,28 @@
         <v>1.83</v>
       </c>
       <c r="T11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>17</v>
+      </c>
+      <c r="V11" t="n">
         <v>12</v>
       </c>
-      <c r="U11" t="n">
-        <v>23</v>
-      </c>
-      <c r="V11" t="n">
-        <v>15</v>
-      </c>
       <c r="W11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="X11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="n">
         <v>34</v>
       </c>
-      <c r="Y11" t="n">
-        <v>41</v>
-      </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1665,28 +1773,28 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MepGtXq3</t>
+          <t>UJ2yXz64</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1696,232 +1804,354 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
         <v>26</v>
       </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>MepGtXq3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>12</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="n">
+        <v>26</v>
+      </c>
+      <c r="X13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>WAijrrOj</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Hartford Athletic</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>North Carolina</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>2.77</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>3.35</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>2.27</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1.05</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>7.6</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>1.27</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M14" t="n">
         <v>3.4</v>
       </c>
-      <c r="N13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.9</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>1.39</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>2.77</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R14" t="n">
         <v>1.65</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v>2.1</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T14" t="n">
         <v>10</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U14" t="n">
         <v>15</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V14" t="n">
         <v>10.25</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W14" t="n">
         <v>32</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X14" t="n">
         <v>23</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y14" t="n">
         <v>29</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z14" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA14" t="n">
         <v>6.6</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB14" t="n">
         <v>13</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC14" t="n">
         <v>55</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE14" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF14" t="n">
         <v>9</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG14" t="n">
         <v>23</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH14" t="n">
         <v>18</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI14" t="n">
         <v>26</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ14" t="n">
         <v>400</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -656,10 +656,10 @@
         <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.67</v>
@@ -668,10 +668,10 @@
         <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.67</v>
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.67</v>
@@ -788,10 +788,10 @@
         <v>2.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -800,10 +800,10 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
         <v>4.5</v>
@@ -836,7 +836,7 @@
         <v>126</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1367,13 +1367,13 @@
         <v>1.23</v>
       </c>
       <c r="M8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
         <v>1.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1384,28 +1384,28 @@
         <v>2.12</v>
       </c>
       <c r="T8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>19</v>
+      </c>
+      <c r="V8" t="n">
         <v>11</v>
       </c>
-      <c r="U8" t="n">
-        <v>18</v>
-      </c>
-      <c r="V8" t="n">
-        <v>10.75</v>
-      </c>
       <c r="W8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1417,16 +1417,16 @@
         <v>8.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF8" t="n">
         <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>23</v>
@@ -2065,37 +2065,37 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M14" t="n">
         <v>3.35</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.4</v>
-      </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="R14" t="n">
         <v>1.65</v>
@@ -2104,28 +2104,28 @@
         <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="W14" t="n">
+        <v>40</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="n">
         <v>32</v>
       </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
       <c r="Z14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
@@ -2134,22 +2134,22 @@
         <v>55</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.17</v>
@@ -788,10 +788,10 @@
         <v>2.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -800,19 +800,19 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
         <v>4.5</v>
       </c>
       <c r="U3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>15</v>
@@ -836,10 +836,10 @@
         <v>126</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
     </row>
@@ -1007,42 +1007,42 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.65</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.72</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
         <v>12.5</v>
@@ -1051,46 +1051,46 @@
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
+        <v>27</v>
+      </c>
+      <c r="X5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y5" t="n">
         <v>28</v>
       </c>
-      <c r="X5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>32</v>
-      </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE5" t="n">
         <v>14</v>
       </c>
-      <c r="AC5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -1125,79 +1125,79 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="O6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC6" t="n">
         <v>27</v>
       </c>
-      <c r="AA6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>28</v>
-      </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AH6" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>110</v>
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1270,28 +1270,28 @@
         <v>2.07</v>
       </c>
       <c r="T7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1300,22 +1300,22 @@
         <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>350</v>
@@ -2065,37 +2065,37 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.65</v>
@@ -2104,13 +2104,13 @@
         <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W14" t="n">
         <v>40</v>
@@ -2122,10 +2122,10 @@
         <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
@@ -2137,16 +2137,16 @@
         <v>8.25</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF14" t="n">
         <v>8.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.67</v>
@@ -920,28 +920,28 @@
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="n">
         <v>5</v>
@@ -956,16 +956,16 @@
         <v>101</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1128,40 +1128,40 @@
         <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1170,25 +1170,25 @@
         <v>14.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC6" t="n">
         <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>27</v>
       </c>
       <c r="AD6" t="n">
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>70</v>
@@ -1200,7 +1200,7 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -2065,19 +2065,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J14" t="n">
         <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2095,61 +2095,61 @@
         <v>1.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V14" t="n">
         <v>10.5</v>
       </c>
-      <c r="U14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>11</v>
-      </c>
       <c r="W14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
         <v>55</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF14" t="n">
         <v>8.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M3" t="n">
         <v>2.1</v>
@@ -809,7 +809,7 @@
         <v>4.5</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -836,10 +836,10 @@
         <v>126</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
     </row>
@@ -887,22 +887,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
         <v>2.1</v>
@@ -929,13 +929,13 @@
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -1033,31 +1033,31 @@
         <v>1.39</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>10.25</v>
@@ -1066,7 +1066,7 @@
         <v>6.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>55</v>
@@ -1075,19 +1075,19 @@
         <v>9.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>400</v>
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
         <v>1.23</v>
       </c>
       <c r="M8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N8" t="n">
         <v>1.7</v>
@@ -1381,25 +1381,25 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
         <v>11.75</v>
       </c>
       <c r="U8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
@@ -1408,25 +1408,25 @@
         <v>6.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF8" t="n">
         <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>23</v>
@@ -1713,7 +1713,7 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -2095,7 +2095,7 @@
         <v>1.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R14" t="n">
         <v>1.7</v>
@@ -2137,10 +2137,10 @@
         <v>8.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -656,10 +656,10 @@
         <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.67</v>
@@ -710,7 +710,7 @@
         <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>151</v>
@@ -767,31 +767,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -896,13 +896,13 @@
         <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M4" t="n">
         <v>2.1</v>
@@ -1128,20 +1128,20 @@
         <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1149,16 +1149,16 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="T6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="U6" t="n">
         <v>14</v>
       </c>
       <c r="V6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
         <v>17.5</v>
@@ -1170,22 +1170,22 @@
         <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC6" t="n">
         <v>26</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1194,10 +1194,10 @@
         <v>70</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>100</v>
@@ -2065,49 +2065,49 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V14" t="n">
         <v>10.5</v>
@@ -2116,25 +2116,25 @@
         <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2146,13 +2146,13 @@
         <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.67</v>
@@ -668,10 +668,10 @@
         <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.67</v>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -704,19 +704,19 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
         <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>151</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
@@ -725,10 +725,10 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>81</v>
@@ -1125,20 +1125,20 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
         <v>3.2</v>
@@ -1146,43 +1146,43 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="U6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>26</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>37</v>
@@ -1191,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>100</v>
@@ -1725,7 +1725,7 @@
         <v>2.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
@@ -1844,10 +1844,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1856,22 +1856,22 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
         <v>12</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
         <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X12" t="n">
         <v>34</v>
@@ -1892,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -788,10 +788,10 @@
         <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -911,7 +911,7 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -920,10 +920,10 @@
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -1018,34 +1018,34 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V5" t="n">
         <v>9.75</v>
@@ -1060,37 +1060,37 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>55</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
@@ -1128,10 +1128,10 @@
         <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="T6" t="n">
         <v>17.5</v>
@@ -1194,7 +1194,7 @@
         <v>75</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1596,10 +1596,10 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N10" t="n">
         <v>2.32</v>
@@ -1611,7 +1611,7 @@
         <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>2.02</v>
@@ -1623,31 +1623,31 @@
         <v>5.9</v>
       </c>
       <c r="U10" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD10" t="n">
         <v>7.6</v>
@@ -1665,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1713,19 +1713,19 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O11" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1752,7 +1752,7 @@
         <v>34</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1770,7 +1770,7 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -1788,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12">
@@ -2068,7 +2068,7 @@
         <v>2.87</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>2.2</v>
@@ -2077,7 +2077,7 @@
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2116,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
         <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6.6</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -788,10 +788,10 @@
         <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -911,7 +911,7 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -920,10 +920,10 @@
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -1467,90 +1467,90 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="N9" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="R9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.78</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T9" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V9" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.25</v>
       </c>
       <c r="W9" t="n">
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="n">
         <v>45</v>
       </c>
       <c r="AJ9" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10">
@@ -1716,16 +1716,16 @@
         <v>9.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N11" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1749,13 +1749,13 @@
         <v>12</v>
       </c>
       <c r="W11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="n">
         <v>9.5</v>
@@ -1770,10 +1770,10 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -1782,13 +1782,13 @@
         <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12">

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -782,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
         <v>2.88</v>
@@ -1238,24 +1238,24 @@
         <v>2.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1264,10 +1264,10 @@
         <v>2.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -1288,19 +1288,19 @@
         <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
         <v>12.5</v>
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>350</v>
@@ -1701,31 +1701,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1734,10 +1734,10 @@
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
         <v>9.5</v>
@@ -1749,19 +1749,19 @@
         <v>12</v>
       </c>
       <c r="W11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X11" t="n">
         <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1770,10 +1770,10 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -1788,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12">
@@ -1844,10 +1844,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -2068,7 +2068,7 @@
         <v>2.87</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>2.2</v>
@@ -2077,7 +2077,7 @@
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2107,7 +2107,7 @@
         <v>9.5</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V14" t="n">
         <v>10.5</v>
@@ -2122,7 +2122,7 @@
         <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA14" t="n">
         <v>6.6</v>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-06.xlsx
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
@@ -2095,7 +2095,7 @@
         <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R14" t="n">
         <v>1.72</v>
@@ -2104,28 +2104,28 @@
         <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W14" t="n">
+        <v>40</v>
+      </c>
+      <c r="X14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="n">
         <v>35</v>
-      </c>
-      <c r="X14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>32</v>
       </c>
       <c r="Z14" t="n">
         <v>7.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2134,22 +2134,22 @@
         <v>60</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>450</v>
